--- a/dumps/Stocks/Trent.xlsx
+++ b/dumps/Stocks/Trent.xlsx
@@ -16,10 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
     <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -439,6 +440,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,43 +1097,47 @@
       <c r="AP4" s="55" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="87" t="n">
-        <v>46049</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="A5" s="88" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3754.3</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>7561.81</v>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4175.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4205.49</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>45.72</v>
+      <c r="H5" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="87" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1144,13 +1150,13 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3951.8</v>
+        <v>3754.3</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3979.79</v>
+        <v>7561.81</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1158,15 +1164,15 @@
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3.95</v>
+        <v>7.49</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>24.04</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1179,13 +1185,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4016.9</v>
+        <v>3951.8</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>8090.73</v>
+        <v>3979.79</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1193,15 +1199,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>8.050000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>48.88</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1214,13 +1220,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4246.3</v>
+        <v>4016.9</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4276.43</v>
+        <v>8090.73</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1228,15 +1234,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>4.27</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>25.86</v>
+        <v>48.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1252,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4296.1</v>
+        <v>4246.3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4326.54</v>
+        <v>4276.43</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1263,15 +1269,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>26.13</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1287,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4204</v>
+        <v>4296.1</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4233.77</v>
+        <v>4326.54</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1298,15 +1304,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>4.18</v>
+        <v>4.31</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>25.59</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1322,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4229</v>
+        <v>4204</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4258.93</v>
+        <v>4233.77</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1333,19 +1339,19 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>25.72</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -1357,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4008.4</v>
+        <v>4229</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4036.82</v>
+        <v>4258.93</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1368,19 +1374,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>4.02</v>
+        <v>4.21</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>24.4</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1389,13 +1395,13 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4109.8</v>
+        <v>4008.4</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>8277.870000000001</v>
+        <v>4036.82</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1403,15 +1409,15 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>8.199999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>50.07</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1424,13 +1430,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4404.5</v>
+        <v>4109.8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4435.71</v>
+        <v>8277.870000000001</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1438,15 +1444,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4.42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>26.79</v>
+        <v>50.07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1462,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4342.1</v>
+        <v>4404.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4372.84</v>
+        <v>4435.71</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1473,15 +1479,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>26.39</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1497,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4374</v>
+        <v>4342.1</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4404.99</v>
+        <v>4372.84</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1511,12 +1517,12 @@
         <v>4.35</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>26.64</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1532,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4276</v>
+        <v>4374</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4306.25</v>
+        <v>4404.99</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1543,19 +1549,19 @@
         </is>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>25.99</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1567,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4688.2</v>
+        <v>4276</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4721.47</v>
+        <v>4306.25</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1578,19 +1584,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.68</v>
+        <v>4.26</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>28.59</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1602,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4714.9</v>
+        <v>4688.2</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4748.27</v>
+        <v>4721.47</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1613,15 +1619,15 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.7</v>
+        <v>4.68</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>28.67</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1634,13 +1640,13 @@
         </is>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>4805.7</v>
+        <v>4714.9</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>9679.58</v>
+        <v>4748.27</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1648,15 +1654,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>9.640000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>58.54</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1672,10 +1678,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4787.7</v>
+        <v>4805.7</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>9643.309999999999</v>
+        <v>9679.58</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1683,19 +1689,19 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>9.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>58.31</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
@@ -1707,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4821.25</v>
+        <v>4787.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>9710.889999999999</v>
+        <v>9643.309999999999</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1721,12 +1727,12 @@
         <v>9.6</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>58.79</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
@@ -1742,10 +1748,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>4802.05</v>
+        <v>4821.25</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9672.23</v>
+        <v>9710.889999999999</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1753,15 +1759,15 @@
         </is>
       </c>
       <c r="H23" s="0" t="n">
-        <v>9.59</v>
+        <v>9.6</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>58.54</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1777,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>4810.75</v>
+        <v>4802.05</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>9689.76</v>
+        <v>9672.23</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1788,15 +1794,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>9.640000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>58.62</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1812,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>5386.5</v>
+        <v>4810.75</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>10849.47</v>
+        <v>9689.76</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1823,113 +1829,50 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>10.79</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>65.68000000000001</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B26" s="39" t="inlineStr">
+      <c r="A26" s="87" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C26" s="39" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D26" s="40" t="n">
+      <c r="D26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="41" t="n">
-        <v>4836.11</v>
-      </c>
-      <c r="F26" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
+      <c r="E26" s="0" t="n">
+        <v>5386.5</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10849.47</v>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="47" t="n"/>
-      <c r="X26" s="47" t="n"/>
-      <c r="Y26" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="47" t="n"/>
-      <c r="AA26" s="47" t="n"/>
-      <c r="AB26" s="48" t="n"/>
-      <c r="AC26" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="49" t="n"/>
+      <c r="H26" s="0" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>65.68000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -1945,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>4844.88</v>
+        <v>4836.11</v>
       </c>
       <c r="F27" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
@@ -1963,71 +1906,71 @@
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2043,96 +1986,93 @@
         <v>2</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>5424.73</v>
-      </c>
-      <c r="F28" s="41" t="n">
-        <v>10849.47</v>
+        <v>4844.88</v>
+      </c>
+      <c r="F28" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="40" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="I28" s="40" t="n">
-        <v>65.68000000000001</v>
-      </c>
+      <c r="H28" s="40" t="n"/>
+      <c r="I28" s="40" t="n"/>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45855</v>
+        <v>45903</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2144,10 +2084,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>5478.06</v>
+        <v>5424.73</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>10956.12</v>
+        <v>10849.47</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2155,85 +2095,85 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>66.23999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2242,99 +2182,99 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>5</v>
+        <v>5478.06</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>15</v>
+        <v>10956.12</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>0</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2343,95 +2283,95 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>5582.82</v>
+        <v>5</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>5582.82</v>
+        <v>15</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2447,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2458,74 +2398,74 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>34.21</v>
+        <v>33.75</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -2568,78 +2508,163 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K33" s="47" t="n"/>
-      <c r="L33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="K33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+      <c r="L33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N33" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O33" s="50" t="n"/>
-      <c r="P33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="N33" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="Q33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+      <c r="O33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="R33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+      <c r="P33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
+      <c r="Q33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
       <c r="S33" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="49" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C34" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F34" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I34" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="47" t="n"/>
+      <c r="L34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="50" t="n"/>
+      <c r="P34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="46">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="47" t="n"/>
+      <c r="X34" s="47" t="n"/>
+      <c r="Y34" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="47" t="n"/>
+      <c r="AA34" s="47" t="n"/>
+      <c r="AB34" s="48" t="n"/>
+      <c r="AC34" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD33" s="49" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="52" t="n"/>
-      <c r="F34" s="52" t="n"/>
-      <c r="G34" s="53" t="n"/>
-      <c r="J34" s="52" t="n"/>
-      <c r="K34" s="52" t="n"/>
-      <c r="L34" s="52" t="n"/>
-      <c r="M34" s="55" t="n"/>
-      <c r="W34" s="52" t="n"/>
-      <c r="X34" s="52" t="n"/>
-      <c r="Y34" s="52" t="n"/>
-      <c r="Z34" s="52" t="n"/>
-      <c r="AA34" s="52" t="n"/>
-      <c r="AB34" s="52" t="n"/>
-      <c r="AC34" s="52" t="n"/>
+      <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="52" t="n"/>
@@ -17592,6 +17617,7 @@
       <c r="J969" s="52" t="n"/>
       <c r="K969" s="52" t="n"/>
       <c r="L969" s="52" t="n"/>
+      <c r="M969" s="55" t="n"/>
       <c r="W969" s="52" t="n"/>
       <c r="X969" s="52" t="n"/>
       <c r="Y969" s="52" t="n"/>
@@ -17839,6 +17865,21 @@
       <c r="AA985" s="52" t="n"/>
       <c r="AB985" s="52" t="n"/>
       <c r="AC985" s="52" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="52" t="n"/>
+      <c r="F986" s="52" t="n"/>
+      <c r="G986" s="53" t="n"/>
+      <c r="J986" s="52" t="n"/>
+      <c r="K986" s="52" t="n"/>
+      <c r="L986" s="52" t="n"/>
+      <c r="W986" s="52" t="n"/>
+      <c r="X986" s="52" t="n"/>
+      <c r="Y986" s="52" t="n"/>
+      <c r="Z986" s="52" t="n"/>
+      <c r="AA986" s="52" t="n"/>
+      <c r="AB986" s="52" t="n"/>
+      <c r="AC986" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$41"/>

--- a/dumps/Stocks/Trent.xlsx
+++ b/dumps/Stocks/Trent.xlsx
@@ -748,7 +748,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP986"/>
+  <dimension ref="A1:AP987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="5">
       <c r="A5" s="88" t="n">
-        <v>46063</v>
+        <v>46059</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1114,21 +1114,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4175.9</v>
+        <v>4077.8</v>
       </c>
       <c r="F5" t="n">
-        <v>4205.49</v>
+        <v>4098.19</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>4.17</v>
-      </c>
       <c r="I5" t="n">
-        <v>25.42</v>
+        <v>20.39</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1136,8 +1133,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="87" t="n">
-        <v>46049</v>
+      <c r="A6" s="88" t="n">
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1150,29 +1147,33 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>3754.3</v>
+        <v>4175.9</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>7561.81</v>
+        <v>4205.49</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" s="0" t="n">
-        <v>7.49</v>
+        <v>4.17</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>45.72</v>
+        <v>25.42</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="87" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1185,13 +1186,13 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3951.8</v>
+        <v>3754.3</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3979.79</v>
+        <v>7561.81</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
@@ -1199,15 +1200,15 @@
         </is>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3.95</v>
+        <v>7.49</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>24.04</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="87" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1220,13 +1221,13 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4016.9</v>
+        <v>3951.8</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>8090.73</v>
+        <v>3979.79</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
@@ -1234,15 +1235,15 @@
         </is>
       </c>
       <c r="H8" s="0" t="n">
-        <v>8.050000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>48.88</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="87" t="n">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,13 +1256,13 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4246.3</v>
+        <v>4016.9</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4276.43</v>
+        <v>8090.73</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -1269,15 +1270,15 @@
         </is>
       </c>
       <c r="H9" s="0" t="n">
-        <v>4.27</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>25.86</v>
+        <v>48.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="87" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1293,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4296.1</v>
+        <v>4246.3</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4326.54</v>
+        <v>4276.43</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -1304,15 +1305,15 @@
         </is>
       </c>
       <c r="H10" s="0" t="n">
-        <v>4.31</v>
+        <v>4.27</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>26.13</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="87" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1328,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4204</v>
+        <v>4296.1</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4233.77</v>
+        <v>4326.54</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
@@ -1339,15 +1340,15 @@
         </is>
       </c>
       <c r="H11" s="0" t="n">
-        <v>4.18</v>
+        <v>4.31</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>25.59</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="87" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1363,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4229</v>
+        <v>4204</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4258.93</v>
+        <v>4233.77</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
@@ -1374,19 +1375,19 @@
         </is>
       </c>
       <c r="H12" s="0" t="n">
-        <v>4.21</v>
+        <v>4.18</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>25.72</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="87" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1398,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4008.4</v>
+        <v>4229</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4036.82</v>
+        <v>4258.93</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
@@ -1409,19 +1410,19 @@
         </is>
       </c>
       <c r="H13" s="0" t="n">
-        <v>4.02</v>
+        <v>4.21</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>24.4</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="87" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1430,13 +1431,13 @@
         </is>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4109.8</v>
+        <v>4008.4</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>8277.870000000001</v>
+        <v>4036.82</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
@@ -1444,15 +1445,15 @@
         </is>
       </c>
       <c r="H14" s="0" t="n">
-        <v>8.199999999999999</v>
+        <v>4.02</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>50.07</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="87" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1465,13 +1466,13 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4404.5</v>
+        <v>4109.8</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4435.71</v>
+        <v>8277.870000000001</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
@@ -1479,15 +1480,15 @@
         </is>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4.42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>26.79</v>
+        <v>50.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="87" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1503,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4342.1</v>
+        <v>4404.5</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4372.84</v>
+        <v>4435.71</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
@@ -1514,15 +1515,15 @@
         </is>
       </c>
       <c r="H16" s="0" t="n">
-        <v>4.35</v>
+        <v>4.42</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>26.39</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="87" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1538,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4374</v>
+        <v>4342.1</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4404.99</v>
+        <v>4372.84</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
@@ -1552,12 +1553,12 @@
         <v>4.35</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>26.64</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="87" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1573,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4276</v>
+        <v>4374</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4306.25</v>
+        <v>4404.99</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
@@ -1584,19 +1585,19 @@
         </is>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>25.99</v>
+        <v>26.64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="87" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -1608,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4688.2</v>
+        <v>4276</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4721.47</v>
+        <v>4306.25</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
@@ -1619,19 +1620,19 @@
         </is>
       </c>
       <c r="H19" s="0" t="n">
-        <v>4.68</v>
+        <v>4.26</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>28.59</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="87" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1643,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>4714.9</v>
+        <v>4688.2</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4748.27</v>
+        <v>4721.47</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
@@ -1654,15 +1655,15 @@
         </is>
       </c>
       <c r="H20" s="0" t="n">
-        <v>4.7</v>
+        <v>4.68</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>28.67</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="87" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1675,13 +1676,13 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4805.7</v>
+        <v>4714.9</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>9679.58</v>
+        <v>4748.27</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
@@ -1689,15 +1690,15 @@
         </is>
       </c>
       <c r="H21" s="0" t="n">
-        <v>9.640000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>58.54</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="87" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1713,10 +1714,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4787.7</v>
+        <v>4805.7</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>9643.309999999999</v>
+        <v>9679.58</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
@@ -1724,19 +1725,19 @@
         </is>
       </c>
       <c r="H22" s="0" t="n">
-        <v>9.6</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>58.31</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="87" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1748,10 +1749,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>4821.25</v>
+        <v>4787.7</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>9710.889999999999</v>
+        <v>9643.309999999999</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
@@ -1762,12 +1763,12 @@
         <v>9.6</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>58.79</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="87" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
@@ -1783,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>4802.05</v>
+        <v>4821.25</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>9672.23</v>
+        <v>9710.889999999999</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
@@ -1794,15 +1795,15 @@
         </is>
       </c>
       <c r="H24" s="0" t="n">
-        <v>9.59</v>
+        <v>9.6</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>58.54</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="87" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1818,10 +1819,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>4810.75</v>
+        <v>4802.05</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>9689.76</v>
+        <v>9672.23</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
@@ -1829,15 +1830,15 @@
         </is>
       </c>
       <c r="H25" s="0" t="n">
-        <v>9.640000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>58.62</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="87" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
@@ -1853,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>5386.5</v>
+        <v>4810.75</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>10849.47</v>
+        <v>9689.76</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
@@ -1864,113 +1865,50 @@
         </is>
       </c>
       <c r="H26" s="0" t="n">
-        <v>10.79</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>65.68000000000001</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B27" s="39" t="inlineStr">
+      <c r="A27" s="87" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C27" s="39" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D27" s="40" t="n">
+      <c r="D27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="41" t="n">
-        <v>4836.11</v>
-      </c>
-      <c r="F27" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G27" s="39" t="inlineStr">
+      <c r="E27" s="0" t="n">
+        <v>5386.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>10849.47</v>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H27" s="40" t="n"/>
-      <c r="I27" s="40" t="n"/>
-      <c r="J27" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K27" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N27" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O27" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R27" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S27" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T27" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U27" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V27" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W27" s="47" t="n"/>
-      <c r="X27" s="47" t="n"/>
-      <c r="Y27" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="47" t="n"/>
-      <c r="AA27" s="47" t="n"/>
-      <c r="AB27" s="48" t="n"/>
-      <c r="AC27" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD27" s="49" t="n"/>
+      <c r="H27" s="0" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>65.68000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -1986,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>4844.88</v>
+        <v>4836.11</v>
       </c>
       <c r="F28" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
@@ -2004,71 +1942,71 @@
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2084,96 +2022,93 @@
         <v>2</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>5424.73</v>
-      </c>
-      <c r="F29" s="41" t="n">
-        <v>10849.47</v>
+        <v>4844.88</v>
+      </c>
+      <c r="F29" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H29" s="40" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="I29" s="40" t="n">
-        <v>65.68000000000001</v>
-      </c>
+      <c r="H29" s="40" t="n"/>
+      <c r="I29" s="40" t="n"/>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45855</v>
+        <v>45903</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2185,10 +2120,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>5478.06</v>
+        <v>5424.73</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>10956.12</v>
+        <v>10849.47</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
@@ -2196,85 +2131,85 @@
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>66.23999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2283,99 +2218,99 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>5</v>
+        <v>5478.06</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>15</v>
+        <v>10956.12</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>0</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C32" s="39" t="inlineStr">
@@ -2384,95 +2319,95 @@
         </is>
       </c>
       <c r="D32" s="40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>5582.82</v>
+        <v>5</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>5582.82</v>
+        <v>15</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B33" s="39" t="inlineStr">
         <is>
@@ -2488,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="F33" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="G33" s="39" t="inlineStr">
         <is>
@@ -2499,74 +2434,74 @@
         </is>
       </c>
       <c r="H33" s="40" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="I33" s="40" t="n">
-        <v>34.21</v>
+        <v>33.75</v>
       </c>
       <c r="J33" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K33" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L33" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M33" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N33" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O33" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P33" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q33" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R33" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S33" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD33" s="49" t="n"/>
@@ -2609,78 +2544,163 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K34" s="47" t="n"/>
-      <c r="L34" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="K34" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M34" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+      <c r="L34" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N34" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M34" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O34" s="50" t="n"/>
-      <c r="P34" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="N34" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="Q34" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+      <c r="O34" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="R34" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+      <c r="P34" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
+      <c r="Q34" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
       <c r="S34" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T34" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U34" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V34" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W34" s="47" t="n"/>
       <c r="X34" s="47" t="n"/>
       <c r="Y34" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z34" s="47" t="n"/>
       <c r="AA34" s="47" t="n"/>
       <c r="AB34" s="48" t="n"/>
       <c r="AC34" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD34" s="49" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B35" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C35" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D35" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F35" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G35" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H35" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I35" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J35" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K35" s="47" t="n"/>
+      <c r="L35" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="M35" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <v/>
+      </c>
+      <c r="N35" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="50" t="n"/>
+      <c r="P35" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R35" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="S35" s="46">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="T35" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="U35" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <v/>
+      </c>
+      <c r="V35" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W35" s="47" t="n"/>
+      <c r="X35" s="47" t="n"/>
+      <c r="Y35" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z35" s="47" t="n"/>
+      <c r="AA35" s="47" t="n"/>
+      <c r="AB35" s="48" t="n"/>
+      <c r="AC35" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD34" s="49" t="n"/>
-    </row>
-    <row r="35">
-      <c r="E35" s="52" t="n"/>
-      <c r="F35" s="52" t="n"/>
-      <c r="G35" s="53" t="n"/>
-      <c r="J35" s="52" t="n"/>
-      <c r="K35" s="52" t="n"/>
-      <c r="L35" s="52" t="n"/>
-      <c r="M35" s="55" t="n"/>
-      <c r="W35" s="52" t="n"/>
-      <c r="X35" s="52" t="n"/>
-      <c r="Y35" s="52" t="n"/>
-      <c r="Z35" s="52" t="n"/>
-      <c r="AA35" s="52" t="n"/>
-      <c r="AB35" s="52" t="n"/>
-      <c r="AC35" s="52" t="n"/>
+      <c r="AD35" s="49" t="n"/>
     </row>
     <row r="36">
       <c r="E36" s="52" t="n"/>
@@ -17633,6 +17653,7 @@
       <c r="J970" s="52" t="n"/>
       <c r="K970" s="52" t="n"/>
       <c r="L970" s="52" t="n"/>
+      <c r="M970" s="55" t="n"/>
       <c r="W970" s="52" t="n"/>
       <c r="X970" s="52" t="n"/>
       <c r="Y970" s="52" t="n"/>
@@ -17880,6 +17901,21 @@
       <c r="AA986" s="52" t="n"/>
       <c r="AB986" s="52" t="n"/>
       <c r="AC986" s="52" t="n"/>
+    </row>
+    <row r="987">
+      <c r="E987" s="52" t="n"/>
+      <c r="F987" s="52" t="n"/>
+      <c r="G987" s="53" t="n"/>
+      <c r="J987" s="52" t="n"/>
+      <c r="K987" s="52" t="n"/>
+      <c r="L987" s="52" t="n"/>
+      <c r="W987" s="52" t="n"/>
+      <c r="X987" s="52" t="n"/>
+      <c r="Y987" s="52" t="n"/>
+      <c r="Z987" s="52" t="n"/>
+      <c r="AA987" s="52" t="n"/>
+      <c r="AB987" s="52" t="n"/>
+      <c r="AC987" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$41"/>

--- a/dumps/Stocks/Trent.xlsx
+++ b/dumps/Stocks/Trent.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP982"/>
+  <dimension ref="A1:AP983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1111,18 +1111,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4175.9</v>
+        <v>4150</v>
       </c>
       <c r="F5" t="n">
-        <v>4196.78</v>
+        <v>4170.75</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20.88</v>
+        <v>20.75</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1147,18 +1147,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4077.8</v>
+        <v>4175.9</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4098.19</v>
+        <v>4196.78</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>20.39</v>
+        <v>20.88</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3754.3</v>
+        <v>4077.8</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7546.14</v>
+        <v>4098.19</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>37.54</v>
+        <v>20.39</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1216,21 +1216,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3951.8</v>
+        <v>3754.3</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3971.56</v>
+        <v>7546.14</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>19.76</v>
+        <v>37.54</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1252,21 +1252,21 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4016.9</v>
+        <v>3951.8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>8073.96</v>
+        <v>3971.56</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>40.16</v>
+        <v>19.76</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1288,21 +1288,21 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4246.3</v>
+        <v>4016.9</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4267.53</v>
+        <v>8073.96</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>21.23</v>
+        <v>40.16</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1327,18 +1327,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4296.1</v>
+        <v>4246.3</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4317.58</v>
+        <v>4267.53</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>21.48</v>
+        <v>21.23</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1363,18 +1363,18 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4204</v>
+        <v>4296.1</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4225.02</v>
+        <v>4317.58</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>21.02</v>
+        <v>21.48</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1399,18 +1399,18 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4229</v>
+        <v>4204</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4250.15</v>
+        <v>4225.02</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>21.15</v>
+        <v>21.02</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1419,11 +1419,11 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -1435,18 +1435,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4008.4</v>
+        <v>4229</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4028.44</v>
+        <v>4250.15</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>20.04</v>
+        <v>21.15</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1455,11 +1455,11 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1468,21 +1468,21 @@
         </is>
       </c>
       <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4109.8</v>
+        <v>4008.4</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>8260.700000000001</v>
+        <v>4028.44</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>41.1</v>
+        <v>20.04</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1504,21 +1504,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4404.5</v>
+        <v>4109.8</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4426.52</v>
+        <v>8260.700000000001</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>22.02</v>
+        <v>41.1</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -1543,18 +1543,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4342.1</v>
+        <v>4404.5</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4363.81</v>
+        <v>4426.52</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>21.71</v>
+        <v>22.02</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1579,18 +1579,18 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4374</v>
+        <v>4342.1</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4395.87</v>
+        <v>4363.81</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>21.87</v>
+        <v>21.71</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1615,18 +1615,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4276</v>
+        <v>4374</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4297.38</v>
+        <v>4395.87</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>21.38</v>
+        <v>21.87</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1635,11 +1635,11 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1651,18 +1651,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>4688.2</v>
+        <v>4276</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4711.64</v>
+        <v>4297.38</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>23.44</v>
+        <v>21.38</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1671,11 +1671,11 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1687,18 +1687,18 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4714.9</v>
+        <v>4688.2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4738.47</v>
+        <v>4711.64</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>23.57</v>
+        <v>23.44</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1720,128 +1720,66 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4714.9</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>4738.47</v>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="J22" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>4805.7</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>9659.459999999999</v>
       </c>
-      <c r="G22" s="0" t="inlineStr">
+      <c r="G23" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>48.06</v>
       </c>
-      <c r="J22" s="0">
+      <c r="J23" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B23" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C23" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D23" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="41" t="n">
-        <v>4836.11</v>
-      </c>
-      <c r="F23" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G23" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H23" s="40" t="n"/>
-      <c r="I23" s="40" t="n"/>
-      <c r="J23" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K23" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L23" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M23" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N23" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O23" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P23" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R23" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S23" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T23" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U23" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V23" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W23" s="47" t="n"/>
-      <c r="X23" s="47" t="n"/>
-      <c r="Y23" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="47" t="n"/>
-      <c r="AA23" s="47" t="n"/>
-      <c r="AB23" s="48" t="n"/>
-      <c r="AC23" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="49" t="n"/>
-    </row>
     <row r="24">
       <c r="A24" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B24" s="39" t="inlineStr">
         <is>
@@ -1857,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="41" t="n">
-        <v>4844.88</v>
+        <v>4836.11</v>
       </c>
       <c r="F24" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G24" s="39" t="inlineStr">
@@ -1875,71 +1813,71 @@
         <v/>
       </c>
       <c r="K24" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L24" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M24" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N24" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O24" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P24" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q24" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R24" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S24" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T24" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U24" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V24" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W24" s="47" t="n"/>
       <c r="X24" s="47" t="n"/>
       <c r="Y24" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z24" s="47" t="n"/>
       <c r="AA24" s="47" t="n"/>
       <c r="AB24" s="48" t="n"/>
       <c r="AC24" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD24" s="49" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B25" s="39" t="inlineStr">
         <is>
@@ -1955,96 +1893,93 @@
         <v>2</v>
       </c>
       <c r="E25" s="41" t="n">
-        <v>5424.73</v>
-      </c>
-      <c r="F25" s="41" t="n">
-        <v>10849.47</v>
+        <v>4844.88</v>
+      </c>
+      <c r="F25" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G25" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H25" s="40" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="I25" s="40" t="n">
-        <v>65.68000000000001</v>
-      </c>
+      <c r="H25" s="40" t="n"/>
+      <c r="I25" s="40" t="n"/>
       <c r="J25" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K25" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L25" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M25" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N25" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O25" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P25" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q25" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R25" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S25" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T25" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U25" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V25" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W25" s="47" t="n"/>
       <c r="X25" s="47" t="n"/>
       <c r="Y25" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z25" s="47" t="n"/>
       <c r="AA25" s="47" t="n"/>
       <c r="AB25" s="48" t="n"/>
       <c r="AC25" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD25" s="49" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45855</v>
+        <v>45903</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" s="39" t="inlineStr">
@@ -2056,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>5478.06</v>
+        <v>5424.73</v>
       </c>
       <c r="F26" s="41" t="n">
-        <v>10956.12</v>
+        <v>10849.47</v>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
@@ -2067,85 +2002,85 @@
         </is>
       </c>
       <c r="H26" s="40" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="I26" s="40" t="n">
-        <v>66.23999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -2154,99 +2089,99 @@
         </is>
       </c>
       <c r="D27" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>5</v>
+        <v>5478.06</v>
       </c>
       <c r="F27" s="41" t="n">
-        <v>15</v>
+        <v>10956.12</v>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H27" s="40" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="I27" s="40" t="n">
-        <v>0</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C28" s="39" t="inlineStr">
@@ -2255,95 +2190,95 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>5582.82</v>
+        <v>5</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>5582.82</v>
+        <v>15</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2359,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2370,74 +2305,74 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>34.21</v>
+        <v>33.75</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
@@ -2480,78 +2415,163 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K30" s="47" t="n"/>
-      <c r="L30" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="K30" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M30" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+      <c r="L30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N30" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O30" s="50" t="n"/>
-      <c r="P30" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="N30" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="Q30" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+      <c r="O30" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="R30" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+      <c r="P30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
+      <c r="Q30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R30" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
       <c r="S30" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="49" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B31" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C31" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D31" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G31" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H31" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I31" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J31" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K31" s="47" t="n"/>
+      <c r="L31" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="M31" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <v/>
+      </c>
+      <c r="N31" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="50" t="n"/>
+      <c r="P31" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="S31" s="46">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="T31" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="U31" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <v/>
+      </c>
+      <c r="V31" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W31" s="47" t="n"/>
+      <c r="X31" s="47" t="n"/>
+      <c r="Y31" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z31" s="47" t="n"/>
+      <c r="AA31" s="47" t="n"/>
+      <c r="AB31" s="48" t="n"/>
+      <c r="AC31" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD30" s="49" t="n"/>
-    </row>
-    <row r="31">
-      <c r="E31" s="52" t="n"/>
-      <c r="F31" s="52" t="n"/>
-      <c r="G31" s="53" t="n"/>
-      <c r="J31" s="52" t="n"/>
-      <c r="K31" s="52" t="n"/>
-      <c r="L31" s="52" t="n"/>
-      <c r="M31" s="55" t="n"/>
-      <c r="W31" s="52" t="n"/>
-      <c r="X31" s="52" t="n"/>
-      <c r="Y31" s="52" t="n"/>
-      <c r="Z31" s="52" t="n"/>
-      <c r="AA31" s="52" t="n"/>
-      <c r="AB31" s="52" t="n"/>
-      <c r="AC31" s="52" t="n"/>
+      <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="E32" s="52" t="n"/>
@@ -17504,6 +17524,7 @@
       <c r="J966" s="52" t="n"/>
       <c r="K966" s="52" t="n"/>
       <c r="L966" s="52" t="n"/>
+      <c r="M966" s="55" t="n"/>
       <c r="W966" s="52" t="n"/>
       <c r="X966" s="52" t="n"/>
       <c r="Y966" s="52" t="n"/>
@@ -17751,6 +17772,21 @@
       <c r="AA982" s="52" t="n"/>
       <c r="AB982" s="52" t="n"/>
       <c r="AC982" s="52" t="n"/>
+    </row>
+    <row r="983">
+      <c r="E983" s="52" t="n"/>
+      <c r="F983" s="52" t="n"/>
+      <c r="G983" s="53" t="n"/>
+      <c r="J983" s="52" t="n"/>
+      <c r="K983" s="52" t="n"/>
+      <c r="L983" s="52" t="n"/>
+      <c r="W983" s="52" t="n"/>
+      <c r="X983" s="52" t="n"/>
+      <c r="Y983" s="52" t="n"/>
+      <c r="Z983" s="52" t="n"/>
+      <c r="AA983" s="52" t="n"/>
+      <c r="AB983" s="52" t="n"/>
+      <c r="AC983" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$41"/>

--- a/dumps/Stocks/Trent.xlsx
+++ b/dumps/Stocks/Trent.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP983"/>
+  <dimension ref="A1:AP985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>46062</v>
+        <v>45954</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1108,21 +1108,18 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>4150</v>
+        <v>4855.44</v>
       </c>
       <c r="F5" t="n">
-        <v>4170.75</v>
+        <v>9710.879999999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I5" t="n">
-        <v>20.75</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>46063</v>
+        <v>45953</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1144,21 +1141,18 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4175.9</v>
+        <v>4855.44</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4196.78</v>
+        <v>9710.879999999999</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>20.88</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1167,7 +1161,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1183,18 +1177,18 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4077.8</v>
+        <v>4150</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4098.19</v>
+        <v>4170.75</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>20.39</v>
+        <v>20.75</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1203,7 +1197,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46049</v>
+        <v>46063</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1216,21 +1210,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>3754.3</v>
+        <v>4175.9</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7546.14</v>
+        <v>4196.78</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>37.54</v>
+        <v>20.88</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46038</v>
+        <v>46059</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1255,18 +1249,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>3951.8</v>
+        <v>4077.8</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3971.56</v>
+        <v>4098.19</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>19.76</v>
+        <v>20.39</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1275,7 +1269,7 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46034</v>
+        <v>46049</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1291,18 +1285,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4016.9</v>
+        <v>3754.3</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>8073.96</v>
+        <v>7546.14</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>40.16</v>
+        <v>37.54</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46020</v>
+        <v>46038</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1327,18 +1321,18 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>4246.3</v>
+        <v>3951.8</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>4267.53</v>
+        <v>3971.56</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>21.23</v>
+        <v>19.76</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1360,21 +1354,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4296.1</v>
+        <v>4016.9</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>4317.58</v>
+        <v>8073.96</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>21.48</v>
+        <v>40.16</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1383,7 +1377,7 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1399,18 +1393,18 @@
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4204</v>
+        <v>4246.3</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4225.02</v>
+        <v>4267.53</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>21.02</v>
+        <v>21.23</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1435,18 +1429,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4229</v>
+        <v>4296.1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4250.15</v>
+        <v>4317.58</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>21.15</v>
+        <v>21.48</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1455,11 +1449,11 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -1471,18 +1465,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4008.4</v>
+        <v>4204</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4028.44</v>
+        <v>4225.02</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>20.04</v>
+        <v>21.02</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1491,7 +1485,7 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1504,21 +1498,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4109.8</v>
+        <v>4229</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>8260.700000000001</v>
+        <v>4250.15</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>41.1</v>
+        <v>21.15</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1527,11 +1521,11 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>45978</v>
+        <v>46009</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1543,18 +1537,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4404.5</v>
+        <v>4008.4</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4426.52</v>
+        <v>4028.44</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>22.02</v>
+        <v>20.04</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1563,7 +1557,7 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>45975</v>
+        <v>46007</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1576,21 +1570,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4342.1</v>
+        <v>4109.8</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4363.81</v>
+        <v>8260.700000000001</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>21.71</v>
+        <v>41.1</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1599,7 +1593,7 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1615,18 +1609,18 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4374</v>
+        <v>4404.5</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4395.87</v>
+        <v>4426.52</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>21.87</v>
+        <v>22.02</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1635,7 +1629,7 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45971</v>
+        <v>45975</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1651,18 +1645,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>4276</v>
+        <v>4342.1</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4297.38</v>
+        <v>4363.81</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>21.38</v>
+        <v>21.71</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1671,11 +1665,11 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45968</v>
+        <v>45974</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -1687,18 +1681,18 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4688.2</v>
+        <v>4374</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4711.64</v>
+        <v>4395.87</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>23.44</v>
+        <v>21.87</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1707,7 +1701,7 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="n">
-        <v>45961</v>
+        <v>45971</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1723,18 +1717,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4714.9</v>
+        <v>4276</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4738.47</v>
+        <v>4297.38</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>23.57</v>
+        <v>21.38</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1743,11 +1737,11 @@
     </row>
     <row r="23">
       <c r="A23" s="85" t="n">
-        <v>45957</v>
+        <v>45968</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1756,226 +1750,102 @@
         </is>
       </c>
       <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4688.2</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>4711.64</v>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607899666</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="J23" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="85" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4714.9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>4738.47</v>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="J24" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>4805.7</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>9659.459999999999</v>
       </c>
-      <c r="G23" s="0" t="inlineStr">
+      <c r="G25" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>48.06</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J25" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B24" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C24" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D24" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="41" t="n">
-        <v>4836.11</v>
-      </c>
-      <c r="F24" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G24" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H24" s="40" t="n"/>
-      <c r="I24" s="40" t="n"/>
-      <c r="J24" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N24" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O24" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R24" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S24" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V24" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W24" s="47" t="n"/>
-      <c r="X24" s="47" t="n"/>
-      <c r="Y24" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="47" t="n"/>
-      <c r="AA24" s="47" t="n"/>
-      <c r="AB24" s="48" t="n"/>
-      <c r="AC24" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="49" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="38" t="n">
-        <v>45947</v>
-      </c>
-      <c r="B25" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C25" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D25" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="41" t="n">
-        <v>4844.88</v>
-      </c>
-      <c r="F25" s="41">
-        <f>D6*E6</f>
-        <v/>
-      </c>
-      <c r="G25" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H25" s="40" t="n"/>
-      <c r="I25" s="40" t="n"/>
-      <c r="J25" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N25" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O25" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R25" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S25" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V25" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W25" s="47" t="n"/>
-      <c r="X25" s="47" t="n"/>
-      <c r="Y25" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="47" t="n"/>
-      <c r="AA25" s="47" t="n"/>
-      <c r="AB25" s="48" t="n"/>
-      <c r="AC25" s="44">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD25" s="49" t="n"/>
-    </row>
     <row r="26">
       <c r="A26" s="38" t="n">
-        <v>45903</v>
+        <v>45950</v>
       </c>
       <c r="B26" s="39" t="inlineStr">
         <is>
@@ -1991,96 +1861,93 @@
         <v>2</v>
       </c>
       <c r="E26" s="41" t="n">
-        <v>5424.73</v>
-      </c>
-      <c r="F26" s="41" t="n">
-        <v>10849.47</v>
+        <v>4836.11</v>
+      </c>
+      <c r="F26" s="41">
+        <f>D5*E5</f>
+        <v/>
       </c>
       <c r="G26" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H26" s="40" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="I26" s="40" t="n">
-        <v>65.68000000000001</v>
-      </c>
+      <c r="H26" s="40" t="n"/>
+      <c r="I26" s="40" t="n"/>
       <c r="J26" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N26" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O26" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R26" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S26" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V26" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W26" s="47" t="n"/>
       <c r="X26" s="47" t="n"/>
       <c r="Y26" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z26" s="47" t="n"/>
       <c r="AA26" s="47" t="n"/>
       <c r="AB26" s="48" t="n"/>
       <c r="AC26" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD26" s="49" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45855</v>
+        <v>45947</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="39" t="inlineStr">
@@ -2092,96 +1959,93 @@
         <v>2</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>5478.06</v>
-      </c>
-      <c r="F27" s="41" t="n">
-        <v>10956.12</v>
+        <v>4844.88</v>
+      </c>
+      <c r="F27" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H27" s="40" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="I27" s="40" t="n">
-        <v>66.23999999999999</v>
-      </c>
+      <c r="H27" s="40" t="n"/>
+      <c r="I27" s="40" t="n"/>
       <c r="J27" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45820</v>
+        <v>45903</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" s="39" t="inlineStr">
@@ -2190,95 +2054,95 @@
         </is>
       </c>
       <c r="D28" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>5</v>
+        <v>5424.73</v>
       </c>
       <c r="F28" s="41" t="n">
-        <v>15</v>
+        <v>10849.47</v>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H28" s="40" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
       <c r="I28" s="40" t="n">
-        <v>0</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45812</v>
+        <v>45855</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
@@ -2291,13 +2155,13 @@
         </is>
       </c>
       <c r="D29" s="40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>5582.82</v>
+        <v>5478.06</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>5582.82</v>
+        <v>10956.12</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2305,85 +2169,85 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>5.57</v>
+        <v>10.88</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>33.75</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45811</v>
+        <v>45820</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2392,95 +2256,95 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>5655.83</v>
+        <v>5</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>5655.83</v>
+        <v>15</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>5.62</v>
+        <v>0</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>34.21</v>
+        <v>0</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
@@ -2496,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
@@ -2507,103 +2371,273 @@
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>34.21</v>
+        <v>33.75</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K31" s="47" t="n"/>
-      <c r="L31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="K31" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="M31" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+      <c r="L31" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="N31" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M31" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
-      <c r="O31" s="50" t="n"/>
-      <c r="P31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="N31" s="45">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
-      <c r="Q31" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+      <c r="O31" s="43">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="R31" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+      <c r="P31" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
+      <c r="Q31" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R31" s="44">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
       <c r="S31" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="49" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B32" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C32" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F32" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H32" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I32" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J32" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K32" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L32" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M32" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N32" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P32" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R32" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S32" s="46">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T32" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U32" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V32" s="47">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W32" s="47" t="n"/>
+      <c r="X32" s="47" t="n"/>
+      <c r="Y32" s="46">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z32" s="47" t="n"/>
+      <c r="AA32" s="47" t="n"/>
+      <c r="AB32" s="48" t="n"/>
+      <c r="AC32" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD32" s="49" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B33" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C33" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D33" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F33" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G33" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H33" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I33" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J33" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K33" s="47" t="n"/>
+      <c r="L33" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="M33" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <v/>
+      </c>
+      <c r="N33" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="50" t="n"/>
+      <c r="P33" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="S33" s="46">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="T33" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="U33" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <v/>
+      </c>
+      <c r="V33" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W33" s="47" t="n"/>
+      <c r="X33" s="47" t="n"/>
+      <c r="Y33" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z33" s="47" t="n"/>
+      <c r="AA33" s="47" t="n"/>
+      <c r="AB33" s="48" t="n"/>
+      <c r="AC33" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD31" s="49" t="n"/>
-    </row>
-    <row r="32">
-      <c r="E32" s="52" t="n"/>
-      <c r="F32" s="52" t="n"/>
-      <c r="G32" s="53" t="n"/>
-      <c r="J32" s="52" t="n"/>
-      <c r="K32" s="52" t="n"/>
-      <c r="L32" s="52" t="n"/>
-      <c r="M32" s="55" t="n"/>
-      <c r="W32" s="52" t="n"/>
-      <c r="X32" s="52" t="n"/>
-      <c r="Y32" s="52" t="n"/>
-      <c r="Z32" s="52" t="n"/>
-      <c r="AA32" s="52" t="n"/>
-      <c r="AB32" s="52" t="n"/>
-      <c r="AC32" s="52" t="n"/>
-    </row>
-    <row r="33">
-      <c r="E33" s="52" t="n"/>
-      <c r="F33" s="52" t="n"/>
-      <c r="G33" s="53" t="n"/>
-      <c r="J33" s="52" t="n"/>
-      <c r="K33" s="52" t="n"/>
-      <c r="L33" s="52" t="n"/>
-      <c r="M33" s="55" t="n"/>
-      <c r="W33" s="52" t="n"/>
-      <c r="X33" s="52" t="n"/>
-      <c r="Y33" s="52" t="n"/>
-      <c r="Z33" s="52" t="n"/>
-      <c r="AA33" s="52" t="n"/>
-      <c r="AB33" s="52" t="n"/>
-      <c r="AC33" s="52" t="n"/>
+      <c r="AD33" s="49" t="n"/>
     </row>
     <row r="34">
       <c r="E34" s="52" t="n"/>
@@ -17540,6 +17574,7 @@
       <c r="J967" s="52" t="n"/>
       <c r="K967" s="52" t="n"/>
       <c r="L967" s="52" t="n"/>
+      <c r="M967" s="55" t="n"/>
       <c r="W967" s="52" t="n"/>
       <c r="X967" s="52" t="n"/>
       <c r="Y967" s="52" t="n"/>
@@ -17555,6 +17590,7 @@
       <c r="J968" s="52" t="n"/>
       <c r="K968" s="52" t="n"/>
       <c r="L968" s="52" t="n"/>
+      <c r="M968" s="55" t="n"/>
       <c r="W968" s="52" t="n"/>
       <c r="X968" s="52" t="n"/>
       <c r="Y968" s="52" t="n"/>
@@ -17787,6 +17823,36 @@
       <c r="AA983" s="52" t="n"/>
       <c r="AB983" s="52" t="n"/>
       <c r="AC983" s="52" t="n"/>
+    </row>
+    <row r="984">
+      <c r="E984" s="52" t="n"/>
+      <c r="F984" s="52" t="n"/>
+      <c r="G984" s="53" t="n"/>
+      <c r="J984" s="52" t="n"/>
+      <c r="K984" s="52" t="n"/>
+      <c r="L984" s="52" t="n"/>
+      <c r="W984" s="52" t="n"/>
+      <c r="X984" s="52" t="n"/>
+      <c r="Y984" s="52" t="n"/>
+      <c r="Z984" s="52" t="n"/>
+      <c r="AA984" s="52" t="n"/>
+      <c r="AB984" s="52" t="n"/>
+      <c r="AC984" s="52" t="n"/>
+    </row>
+    <row r="985">
+      <c r="E985" s="52" t="n"/>
+      <c r="F985" s="52" t="n"/>
+      <c r="G985" s="53" t="n"/>
+      <c r="J985" s="52" t="n"/>
+      <c r="K985" s="52" t="n"/>
+      <c r="L985" s="52" t="n"/>
+      <c r="W985" s="52" t="n"/>
+      <c r="X985" s="52" t="n"/>
+      <c r="Y985" s="52" t="n"/>
+      <c r="Z985" s="52" t="n"/>
+      <c r="AA985" s="52" t="n"/>
+      <c r="AB985" s="52" t="n"/>
+      <c r="AC985" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$41"/>

--- a/dumps/Stocks/Trent.xlsx
+++ b/dumps/Stocks/Trent.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP985"/>
+  <dimension ref="A1:AP986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1095,11 +1095,11 @@
     </row>
     <row r="5">
       <c r="A5" s="85" t="n">
-        <v>45954</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1108,18 +1108,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4855.44</v>
+        <v>4230.8</v>
       </c>
       <c r="F5" t="n">
-        <v>9710.879999999999</v>
+        <v>4260.65</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>CN#252611972212</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4.2566</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25.5972</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1128,7 +1134,7 @@
     </row>
     <row r="6">
       <c r="A6" s="85" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1161,7 +1167,7 @@
     </row>
     <row r="7">
       <c r="A7" s="85" t="n">
-        <v>46062</v>
+        <v>45953</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1174,21 +1180,18 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4150</v>
+        <v>4855.44</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4170.75</v>
+        <v>9710.879999999999</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>~</t>
         </is>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>20.75</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="8">
       <c r="A8" s="85" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1213,18 +1216,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>4175.9</v>
+        <v>4150</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4196.78</v>
+        <v>4170.75</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>20.88</v>
+        <v>20.75</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="85" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1249,18 +1252,18 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>4077.8</v>
+        <v>4175.9</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>4098.19</v>
+        <v>4196.78</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>20.39</v>
+        <v>20.88</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="10">
       <c r="A10" s="85" t="n">
-        <v>46049</v>
+        <v>46059</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1282,21 +1285,21 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3754.3</v>
+        <v>4077.8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7546.14</v>
+        <v>4098.19</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>37.54</v>
+        <v>20.39</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="11">
       <c r="A11" s="85" t="n">
-        <v>46038</v>
+        <v>46049</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1318,21 +1321,21 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3951.8</v>
+        <v>3754.3</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3971.56</v>
+        <v>7546.14</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>19.76</v>
+        <v>37.54</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="12">
       <c r="A12" s="85" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1354,21 +1357,21 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>4016.9</v>
+        <v>3951.8</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>8073.96</v>
+        <v>3971.56</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>40.16</v>
+        <v>19.76</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="13">
       <c r="A13" s="85" t="n">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
@@ -1390,21 +1393,21 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>4246.3</v>
+        <v>4016.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>4267.53</v>
+        <v>8073.96</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>21.23</v>
+        <v>40.16</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1413,7 +1416,7 @@
     </row>
     <row r="14">
       <c r="A14" s="85" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1429,18 +1432,18 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>4296.1</v>
+        <v>4246.3</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>4317.58</v>
+        <v>4267.53</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>21.48</v>
+        <v>21.23</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1449,7 +1452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="85" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1465,18 +1468,18 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4204</v>
+        <v>4296.1</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>4225.02</v>
+        <v>4317.58</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>21.02</v>
+        <v>21.48</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="16">
       <c r="A16" s="85" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
@@ -1501,18 +1504,18 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4229</v>
+        <v>4204</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>4250.15</v>
+        <v>4225.02</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>21.15</v>
+        <v>21.02</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1521,11 +1524,11 @@
     </row>
     <row r="17">
       <c r="A17" s="85" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1537,18 +1540,18 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4008.4</v>
+        <v>4229</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4028.44</v>
+        <v>4250.15</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>20.04</v>
+        <v>21.15</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1557,11 +1560,11 @@
     </row>
     <row r="18">
       <c r="A18" s="85" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -1570,21 +1573,21 @@
         </is>
       </c>
       <c r="D18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4109.8</v>
+        <v>4008.4</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>8260.700000000001</v>
+        <v>4028.44</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>41.1</v>
+        <v>20.04</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="19">
       <c r="A19" s="85" t="n">
-        <v>45978</v>
+        <v>46007</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1606,21 +1609,21 @@
         </is>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>4404.5</v>
+        <v>4109.8</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4426.52</v>
+        <v>8260.700000000001</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>22.02</v>
+        <v>41.1</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="20">
       <c r="A20" s="85" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
@@ -1645,18 +1648,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>4342.1</v>
+        <v>4404.5</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>4363.81</v>
+        <v>4426.52</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>21.71</v>
+        <v>22.02</v>
       </c>
       <c r="J20" s="0">
         <f>Index!$C$2</f>
@@ -1665,7 +1668,7 @@
     </row>
     <row r="21">
       <c r="A21" s="85" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1681,18 +1684,18 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4374</v>
+        <v>4342.1</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>4395.87</v>
+        <v>4363.81</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>21.87</v>
+        <v>21.71</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1701,7 +1704,7 @@
     </row>
     <row r="22">
       <c r="A22" s="85" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1717,18 +1720,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4276</v>
+        <v>4374</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>4297.38</v>
+        <v>4395.87</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>21.38</v>
+        <v>21.87</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1737,11 +1740,11 @@
     </row>
     <row r="23">
       <c r="A23" s="85" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1753,18 +1756,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>4688.2</v>
+        <v>4276</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>4711.64</v>
+        <v>4297.38</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>23.44</v>
+        <v>21.38</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1773,11 +1776,11 @@
     </row>
     <row r="24">
       <c r="A24" s="85" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1789,18 +1792,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>4714.9</v>
+        <v>4688.2</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4738.47</v>
+        <v>4711.64</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>23.57</v>
+        <v>23.44</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="25">
       <c r="A25" s="85" t="n">
-        <v>45957</v>
+        <v>45961</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1822,128 +1825,66 @@
         </is>
       </c>
       <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4714.9</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>4738.47</v>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="J25" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="85" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="0" t="n">
         <v>4805.7</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>9659.459999999999</v>
       </c>
-      <c r="G25" s="0" t="inlineStr">
+      <c r="G26" s="0" t="inlineStr">
         <is>
           <t>CN#252607382790</t>
         </is>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I26" s="0" t="n">
         <v>48.06</v>
       </c>
-      <c r="J25" s="0">
+      <c r="J26" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="38" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B26" s="39" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C26" s="39" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="41" t="n">
-        <v>4836.11</v>
-      </c>
-      <c r="F26" s="41">
-        <f>D5*E5</f>
-        <v/>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H26" s="40" t="n"/>
-      <c r="I26" s="40" t="n"/>
-      <c r="J26" s="42">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N26" s="45">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O26" s="43">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R26" s="44">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S26" s="46">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V26" s="47">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W26" s="47" t="n"/>
-      <c r="X26" s="47" t="n"/>
-      <c r="Y26" s="46">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="47" t="n"/>
-      <c r="AA26" s="47" t="n"/>
-      <c r="AB26" s="48" t="n"/>
-      <c r="AC26" s="44">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD26" s="49" t="n"/>
-    </row>
     <row r="27">
       <c r="A27" s="38" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B27" s="39" t="inlineStr">
         <is>
@@ -1959,10 +1900,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="41" t="n">
-        <v>4844.88</v>
+        <v>4836.11</v>
       </c>
       <c r="F27" s="41">
-        <f>D6*E6</f>
+        <f>D5*E5</f>
         <v/>
       </c>
       <c r="G27" s="39" t="inlineStr">
@@ -1977,71 +1918,71 @@
         <v/>
       </c>
       <c r="K27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N27" s="45">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O27" s="43">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R27" s="44">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S27" s="46">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V27" s="47">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W27" s="47" t="n"/>
       <c r="X27" s="47" t="n"/>
       <c r="Y27" s="46">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z27" s="47" t="n"/>
       <c r="AA27" s="47" t="n"/>
       <c r="AB27" s="48" t="n"/>
       <c r="AC27" s="44">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD27" s="49" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="38" t="n">
-        <v>45903</v>
+        <v>45947</v>
       </c>
       <c r="B28" s="39" t="inlineStr">
         <is>
@@ -2057,96 +1998,93 @@
         <v>2</v>
       </c>
       <c r="E28" s="41" t="n">
-        <v>5424.73</v>
-      </c>
-      <c r="F28" s="41" t="n">
-        <v>10849.47</v>
+        <v>4844.88</v>
+      </c>
+      <c r="F28" s="41">
+        <f>D6*E6</f>
+        <v/>
       </c>
       <c r="G28" s="39" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H28" s="40" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="I28" s="40" t="n">
-        <v>65.68000000000001</v>
-      </c>
+      <c r="H28" s="40" t="n"/>
+      <c r="I28" s="40" t="n"/>
       <c r="J28" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N28" s="45">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O28" s="43">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R28" s="44">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S28" s="46">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V28" s="47">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W28" s="47" t="n"/>
       <c r="X28" s="47" t="n"/>
       <c r="Y28" s="46">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z28" s="47" t="n"/>
       <c r="AA28" s="47" t="n"/>
       <c r="AB28" s="48" t="n"/>
       <c r="AC28" s="44">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD28" s="49" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="38" t="n">
-        <v>45855</v>
+        <v>45903</v>
       </c>
       <c r="B29" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" s="39" t="inlineStr">
@@ -2158,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="41" t="n">
-        <v>5478.06</v>
+        <v>5424.73</v>
       </c>
       <c r="F29" s="41" t="n">
-        <v>10956.12</v>
+        <v>10849.47</v>
       </c>
       <c r="G29" s="39" t="inlineStr">
         <is>
@@ -2169,85 +2107,85 @@
         </is>
       </c>
       <c r="H29" s="40" t="n">
-        <v>10.88</v>
+        <v>10.79</v>
       </c>
       <c r="I29" s="40" t="n">
-        <v>66.23999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J29" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N29" s="45">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O29" s="43">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R29" s="44">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S29" s="46">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V29" s="47">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W29" s="47" t="n"/>
       <c r="X29" s="47" t="n"/>
       <c r="Y29" s="46">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z29" s="47" t="n"/>
       <c r="AA29" s="47" t="n"/>
       <c r="AB29" s="48" t="n"/>
       <c r="AC29" s="44">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD29" s="49" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="38" t="n">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="B30" s="39" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" s="39" t="inlineStr">
@@ -2256,99 +2194,99 @@
         </is>
       </c>
       <c r="D30" s="40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="41" t="n">
-        <v>5</v>
+        <v>5478.06</v>
       </c>
       <c r="F30" s="41" t="n">
-        <v>15</v>
+        <v>10956.12</v>
       </c>
       <c r="G30" s="39" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H30" s="40" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="I30" s="40" t="n">
-        <v>0</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="J30" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N30" s="45">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O30" s="43">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R30" s="44">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S30" s="46">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V30" s="47">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W30" s="47" t="n"/>
       <c r="X30" s="47" t="n"/>
       <c r="Y30" s="46">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z30" s="47" t="n"/>
       <c r="AA30" s="47" t="n"/>
       <c r="AB30" s="48" t="n"/>
       <c r="AC30" s="44">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD30" s="49" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="38" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B31" s="39" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C31" s="39" t="inlineStr">
@@ -2357,95 +2295,95 @@
         </is>
       </c>
       <c r="D31" s="40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="41" t="n">
-        <v>5582.82</v>
+        <v>5</v>
       </c>
       <c r="F31" s="41" t="n">
-        <v>5582.82</v>
+        <v>15</v>
       </c>
       <c r="G31" s="39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.5.0000/- per share on Ex-Date: 12-JUN-2025</t>
         </is>
       </c>
       <c r="H31" s="40" t="n">
-        <v>5.57</v>
+        <v>0</v>
       </c>
       <c r="I31" s="40" t="n">
-        <v>33.75</v>
+        <v>0</v>
       </c>
       <c r="J31" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N31" s="45">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O31" s="43">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R31" s="44">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S31" s="46">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V31" s="47">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W31" s="47" t="n"/>
       <c r="X31" s="47" t="n"/>
       <c r="Y31" s="46">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z31" s="47" t="n"/>
       <c r="AA31" s="47" t="n"/>
       <c r="AB31" s="48" t="n"/>
       <c r="AC31" s="44">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD31" s="49" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="38" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B32" s="39" t="inlineStr">
         <is>
@@ -2461,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="F32" s="41" t="n">
-        <v>5655.83</v>
+        <v>5582.82</v>
       </c>
       <c r="G32" s="39" t="inlineStr">
         <is>
@@ -2472,74 +2410,74 @@
         </is>
       </c>
       <c r="H32" s="40" t="n">
-        <v>5.62</v>
+        <v>5.57</v>
       </c>
       <c r="I32" s="40" t="n">
-        <v>34.21</v>
+        <v>33.75</v>
       </c>
       <c r="J32" s="42">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N32" s="45">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O32" s="43">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R32" s="44">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S32" s="46">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V32" s="47">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W32" s="47" t="n"/>
       <c r="X32" s="47" t="n"/>
       <c r="Y32" s="46">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z32" s="47" t="n"/>
       <c r="AA32" s="47" t="n"/>
       <c r="AB32" s="48" t="n"/>
       <c r="AC32" s="44">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD32" s="49" t="n"/>
@@ -2582,78 +2520,163 @@
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K33" s="47" t="n"/>
-      <c r="L33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="K33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+      <c r="L33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N33" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O33" s="50" t="n"/>
-      <c r="P33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+      <c r="N33" s="45">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
-      <c r="Q33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+      <c r="O33" s="43">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="R33" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+      <c r="P33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
+      <c r="Q33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R33" s="44">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
       <c r="S33" s="46">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V33" s="47">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W33" s="47" t="n"/>
       <c r="X33" s="47" t="n"/>
       <c r="Y33" s="46">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z33" s="47" t="n"/>
       <c r="AA33" s="47" t="n"/>
       <c r="AB33" s="48" t="n"/>
       <c r="AC33" s="44">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD33" s="49" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="38" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B34" s="39" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C34" s="39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D34" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="F34" s="41" t="n">
+        <v>5655.83</v>
+      </c>
+      <c r="G34" s="39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H34" s="40" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="I34" s="40" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="J34" s="42">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K34" s="47" t="n"/>
+      <c r="L34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="M34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <v/>
+      </c>
+      <c r="N34" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="50" t="n"/>
+      <c r="P34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <v/>
+      </c>
+      <c r="R34" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="S34" s="46">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="T34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <v/>
+      </c>
+      <c r="U34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <v/>
+      </c>
+      <c r="V34" s="47">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <v/>
+      </c>
+      <c r="W34" s="47" t="n"/>
+      <c r="X34" s="47" t="n"/>
+      <c r="Y34" s="46">
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <v/>
+      </c>
+      <c r="Z34" s="47" t="n"/>
+      <c r="AA34" s="47" t="n"/>
+      <c r="AB34" s="48" t="n"/>
+      <c r="AC34" s="44">
         <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
-      <c r="AD33" s="49" t="n"/>
-    </row>
-    <row r="34">
-      <c r="E34" s="52" t="n"/>
-      <c r="F34" s="52" t="n"/>
-      <c r="G34" s="53" t="n"/>
-      <c r="J34" s="52" t="n"/>
-      <c r="K34" s="52" t="n"/>
-      <c r="L34" s="52" t="n"/>
-      <c r="M34" s="55" t="n"/>
-      <c r="W34" s="52" t="n"/>
-      <c r="X34" s="52" t="n"/>
-      <c r="Y34" s="52" t="n"/>
-      <c r="Z34" s="52" t="n"/>
-      <c r="AA34" s="52" t="n"/>
-      <c r="AB34" s="52" t="n"/>
-      <c r="AC34" s="52" t="n"/>
+      <c r="AD34" s="49" t="n"/>
     </row>
     <row r="35">
       <c r="E35" s="52" t="n"/>
@@ -17606,6 +17629,7 @@
       <c r="J969" s="52" t="n"/>
       <c r="K969" s="52" t="n"/>
       <c r="L969" s="52" t="n"/>
+      <c r="M969" s="55" t="n"/>
       <c r="W969" s="52" t="n"/>
       <c r="X969" s="52" t="n"/>
       <c r="Y969" s="52" t="n"/>
@@ -17853,6 +17877,21 @@
       <c r="AA985" s="52" t="n"/>
       <c r="AB985" s="52" t="n"/>
       <c r="AC985" s="52" t="n"/>
+    </row>
+    <row r="986">
+      <c r="E986" s="52" t="n"/>
+      <c r="F986" s="52" t="n"/>
+      <c r="G986" s="53" t="n"/>
+      <c r="J986" s="52" t="n"/>
+      <c r="K986" s="52" t="n"/>
+      <c r="L986" s="52" t="n"/>
+      <c r="W986" s="52" t="n"/>
+      <c r="X986" s="52" t="n"/>
+      <c r="Y986" s="52" t="n"/>
+      <c r="Z986" s="52" t="n"/>
+      <c r="AA986" s="52" t="n"/>
+      <c r="AB986" s="52" t="n"/>
+      <c r="AC986" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$41"/>
